--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B2B5F4-62A3-E543-BD8F-6D23D90ED5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1BB07B-E0AA-394D-9FCC-2CDB2AE03AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>语言/语句类型</t>
   </si>
@@ -82,13 +82,21 @@
   </si>
   <si>
     <t>赋值</t>
+  </si>
+  <si>
+    <t>Swift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,17 +119,39 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,10 +186,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,112 +231,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA1A49B-A1C6-6F49-9B35-5FE5A24B439F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2057400" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE93CE9B-1013-BF4D-AEF8-50BABEF007E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11557000" y="0"/>
-          <a:ext cx="2032000" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -305,8 +257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23114000" y="0"/>
-          <a:ext cx="2032000" cy="2019300"/>
+          <a:off x="11303000" y="0"/>
+          <a:ext cx="2476500" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,221 +577,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="29">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="25">
-      <c r="A9" s="2" t="s">
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="16" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="16" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="26" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H1:H8"/>
-    <mergeCell ref="I1:I8"/>
-    <mergeCell ref="J1:J8"/>
-    <mergeCell ref="K1:K8"/>
-    <mergeCell ref="L1:L8"/>
-    <mergeCell ref="M1:M8"/>
-    <mergeCell ref="B1:B8"/>
-    <mergeCell ref="C1:C8"/>
-    <mergeCell ref="D1:D8"/>
-    <mergeCell ref="E1:E8"/>
-    <mergeCell ref="F1:F8"/>
-    <mergeCell ref="G1:G8"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\language_compare\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1BB07B-E0AA-394D-9FCC-2CDB2AE03AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2633B61-6208-4A78-BD46-8A3703154F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>语言/语句类型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>C++/C</t>
   </si>
@@ -81,14 +70,1584 @@
     <t>简易教程</t>
   </si>
   <si>
+    <t>Swift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本运算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte 字节 0 至 255
+Integer 整数 -32,768 至 32,767
+Long 长整数 -2,147,483,648 至 2,147,483,648</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单精度浮点数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在表示负数时：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -3.402823E38 ~ -1.401298E-45
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在表示正数时：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.401298E-45 ~ 3.402823E38
+Double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双精度浮点数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在表示负数时：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -1.79769313486231E308 ~ -4.94065645841247E-324
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在表示正数时：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4.94065645841247E-324 ~ 1.79769313486231E308
+Currency </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -922,337,203,685,477.5808 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 922,337,203,685,477.5807
+Decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定点数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未放置定点数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +/- 79,228,162,514,264,337,593,543,950,335
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放置定点数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +/- 7.9228162514264337593543950335</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> False</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任意类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不限</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>赋值</t>
-  </si>
-  <si>
-    <t>Swift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Const [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>] As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>] = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dim {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>} [As {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}] Dim</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿字符
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zhang San</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两数相除，取余数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a Mod b
+^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幂运算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a ^ b
+\ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两数相除，取整数部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a \ b</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本算术表达式，基本逻辑表达式</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊算术表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a &lt;&gt; b
+And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑与，两个表达式都是真，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a And b -&gt; False
+Or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑或，两个表达式至少有一个为真，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a Or b -&gt; True
+Not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑否，对逻辑表达式取否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Not a -&gt; False
+Xor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑异或，如果两个表达式不相同，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True a Xor b -&gt; True</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接两个文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “Zhang” &amp; ” ” &amp; “San” -&gt; “Zhang San”
+_ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">将一行代码分解成两行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将两行代码放置在一行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format：格式化数据，并以文本类型返回
+InStr：返回指定字符的位置
+InStrRev：反方向返回指定字符位置
+Left：返回左侧指定长度文本
+Len：返回文本长度
+LCase：大写字母转换成小写字母
+LTrim：清除开头的空格
+Mid：返回指定的开始和结束位置之间的文本
+Replace：替换文本中的指定字符
+Right：返回右侧指定长度文本
+RTrim：清除末尾处的空格
+Space：返回指定重复数的空格文本
+StrComp：返回比较两个文本的结果
+StrConv：将文本转换成指定格式
+String：返回指定重复数的文本
+StrReverse：逆转提供的字符串
+Trim：清除开头和结尾处的文本
+UCase：将小写字母转换成大写字母</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-&gt; 16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VBA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cells(i, 1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sub MyCode()
+    ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+End Sub</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值(也是表达式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> isBlank = Cells(i, 1).Value = ""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加语言概念内部命名，例如函数在vb中叫’过程‘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用内部库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cells</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为空，则用上方的单元格的值填充当前单元格
+If isBlank Then
+    Cells(i, 1) = Cells(i - 1, 1)
+End If</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个文本类型元素的数组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dim names(1 to 10) As String
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">声明长度未知的文本类型数组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dim names() As String</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多声明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">符号，在一行写
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dim i As Integer : Dim j As Integer</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译期代码优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制变量声明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBA 提供一个选项，可以强制变量声明，即在模块头部写上以下语句：
+Option Explicit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Let name = "Zhang San"
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>] = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环开始
+For i = 2 To 10
+ '这里是循环的代码
+Next I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do While i &lt; 10
+    Msgbox i
+    i = i + 1
+Loop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非限定类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期和时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">00:00:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23:59:59
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100-1-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9999-12-31
+time = #12:00:00#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">声明工作表类型的对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dim sheet As Worksheet
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将名称为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的工作表，赋到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Set sheet = Worksheets("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")
+Dim sheet As Worksheet
+Set sheet = Worksheets("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于对象可以包含多个属性，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VBA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供一种同时给多个属性赋值的简单方法。具体方法是对象多个属性赋值语句，放置在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> With+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>End With</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键词中间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+With sheet
+    .Name = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧绩效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+    .Visible = False
+End With</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +1655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +1712,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,21 +1779,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,6 +1804,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -225,59 +1861,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08285B83-D370-624D-A6B8-96523FCC486A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11303000" y="0"/>
-          <a:ext cx="2476500" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,234 +2160,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
-  <dimension ref="A1:O11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="28.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="29">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="26" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BC408-9160-473D-BDF6-88BE593161FD}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="196.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\language_compare\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2633B61-6208-4A78-BD46-8A3703154F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0185E0-0C7D-4DD5-B9EA-5C1D47C5057F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>C++/C</t>
   </si>
@@ -549,10 +549,6 @@
       </rPr>
       <t>}] Dim</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -978,10 +974,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>函数调用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1040,37 +1032,6 @@
         <charset val="134"/>
       </rPr>
       <t>对象</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cells(i, 1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sub MyCode()
-    ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语句</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-End Sub</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1269,28 +1230,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>循环1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环开始
-For i = 2 To 10
- '这里是循环的代码
-Next I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do While i &lt; 10
-    Msgbox i
-    i = i + 1
-Loop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1546,108 +1485,720 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">")
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>由于对象可以包含多个属性，因此</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VBA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供一种同时给多个属性赋值的简单方法。具体方法是对象多个属性赋值语句，放置在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> With+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>End With</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关键词中间。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+由于对象可以包含多个属性，因此 VBA 提供一种同时给多个属性赋值的简单方法。具体方法是对象多个属性赋值语句，放置在 With+对象和End With关键词中间。
 With sheet
-    .Name = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旧绩效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
+    .Name = "旧绩效"
     .Visible = False
 End With</t>
-    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>With 结构（可嵌套）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoTo [标签]
+'被跳过的代码
+...
+[标签]:
+'被执行的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>break</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For … Next 循环 按指定次数循环执行
+For Each 循环 逐一遍历数据集合中的每一个元素
+Do While … Loop 循环 当条件为真时，循环执行
+Do … Loop While 循环 当条件为真时，循环执行。无论条件真假，至少运行一次
+Do Until … Loop 循环 直到条件为真时，停止执行
+Do … Loop Until 循环 直到条件为真时，停止执行。无论条件真假，至少运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit For 跳出 For 循环
+Exit Do 跳出 Do While/Until 循环</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sub [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1] As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1],...[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n] As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n])
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+    ...
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3
+End Sub</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main 过程是一个主入口（父过程），程序从此处开始执行
+'主入口
+Sub Main()
+    Dim name As String
+    Dim title As String
+    name = "Zhang san"
+    title = "CEO"
+    WriteInfo name &amp; "," &amp; title
+End Sub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>End 语句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接调用，直接写过程名，即可调用过程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    MySub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果子过程需要输入参数，多个参数只需用逗号（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分开即可。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    MySub 2019,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用关键词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Call </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    Call MySub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果子过程需要输入参数，则需要将参数放在括号内。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    Call MySub(2019,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子过程调用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Function [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1] As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1],...[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n] As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n]) As [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回值类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+    ...
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3
+    [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>] = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+End Function</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子过程（无返回值）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Sub 语句
+Exit Function 语句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无参数函数直接书写，有参数函数将参数放在括号内。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    result = Add(12, 345)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传参</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByVal：传递变量时，复制一份该变量，传入过程或函数。在过程和函数内部对该变量进行修改，只对该副本有效，对上一级过程（父过程）的变量没有影响。
+ByRef：传递变量时，将该变量的引用地址传入过程或函数。传入引用地址意味着，在过程或函数内部对其修改时，也会影响上一级过程（父过程）中的变量的值。
+'ByVal 传递类型
+Sub TestSub1(ByVal msg As String)
+End Sub
+'ByRef 传递类型
+Sub TestSub2(ByRef msg As String)
+End Sub</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +2206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1756,6 +2307,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1779,20 +2337,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1804,17 +2350,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1845,6 +2385,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,519 +2716,621 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="6"/>
+    <col min="1" max="1" width="36.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="16"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="104.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="B37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
+      <c r="C49" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C65" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="209.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2697,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\language_compare\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0185E0-0C7D-4DD5-B9EA-5C1D47C5057F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B007-F7F8-FE41-A3F9-08888BA0433A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="3640" yWindow="2120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>C++/C</t>
   </si>
@@ -1060,10 +1060,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Excel对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Cells</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1491,15 +1487,6 @@
   </si>
   <si>
     <t>语法糖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-由于对象可以包含多个属性，因此 VBA 提供一种同时给多个属性赋值的简单方法。具体方法是对象多个属性赋值语句，放置在 With+对象和End With关键词中间。
-With sheet
-    .Name = "旧绩效"
-    .Visible = False
-End With</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1524,15 +1511,6 @@
   </si>
   <si>
     <t>循环</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>For … Next 循环 按指定次数循环执行
-For Each 循环 逐一遍历数据集合中的每一个元素
-Do While … Loop 循环 当条件为真时，循环执行
-Do … Loop While 循环 当条件为真时，循环执行。无论条件真假，至少运行一次
-Do Until … Loop 循环 直到条件为真时，停止执行
-Do … Loop Until 循环 直到条件为真时，停止执行。无论条件真假，至少运行一次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2187,18 +2165,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>传参</t>
+    <t>步进</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range("A65536").End(3).Row To 2 Step -1  '从最后一行到倒数第二行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do While … Loop 循环 当条件为真时，循环执行
+Do … Loop While 循环 当条件为真时，循环执行。无论条件真假，至少运行一次
+Do Until … Loop 循环 直到条件为真时，停止执行
+Do … Loop Until 循环 直到条件为真时，停止执行。无论条件真假，至少运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For … Next 循环 按指定次数循环执行
+For Each 循环 逐一遍历数据集合中的每一个元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于对象可以包含多个属性，因此 VBA 提供一种同时给多个属性赋值的简单方法。具体方法是对象多个属性赋值语句，放置在 With+对象和End With关键词中间。
+With sheet
+    .Name = "旧绩效"
+    .Visible = False
+End With</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取参地址</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ByVal：传递变量时，复制一份该变量，传入过程或函数。在过程和函数内部对该变量进行修改，只对该副本有效，对上一级过程（父过程）的变量没有影响。
-ByRef：传递变量时，将该变量的引用地址传入过程或函数。传入引用地址意味着，在过程或函数内部对其修改时，也会影响上一级过程（父过程）中的变量的值。
-'ByVal 传递类型
-Sub TestSub1(ByVal msg As String)
-End Sub
-'ByRef 传递类型
-Sub TestSub2(ByRef msg As String)
-End Sub</t>
+ByRef：传递变量时，将该变量的引用地址传入过程或函数。传入引用地址意味着，在过程或函数内部对其修改时，也会影响上一级过程（父过程）中的变量的值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel内置函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel内置对象</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2206,7 +2214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2386,9 +2394,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2399,6 +2404,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2716,91 +2724,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="28">
+      <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:17" ht="29">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:17" ht="25">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="11"/>
@@ -2816,8 +2824,8 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" ht="25">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11"/>
@@ -2833,9 +2841,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>58</v>
+    <row r="5" spans="1:17" ht="51">
+      <c r="A5" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -2844,8 +2852,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:17" ht="119">
+      <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
@@ -2863,8 +2871,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:17" ht="16">
+      <c r="A7" s="20"/>
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
@@ -2882,8 +2890,8 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:17" ht="34">
+      <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
@@ -2901,8 +2909,8 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:17" ht="17">
+      <c r="A9" s="20"/>
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
@@ -2920,13 +2928,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:17" ht="51">
+      <c r="A10" s="20"/>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2939,10 +2947,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:17" ht="17">
+      <c r="A11" s="20"/>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -2958,8 +2966,8 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:17" ht="16">
+      <c r="A12" s="20"/>
       <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
@@ -2977,8 +2985,8 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:17" ht="16">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2998,8 +3006,8 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:17" ht="51">
+      <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
@@ -3017,8 +3025,8 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:17" ht="85">
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
@@ -3036,8 +3044,8 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:17" ht="51">
+      <c r="A16" s="20"/>
       <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
@@ -3055,8 +3063,8 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:13" ht="17">
+      <c r="A17" s="20"/>
       <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
@@ -3064,9 +3072,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="C18" s="15"/>
+    <row r="18" spans="1:13" ht="17">
+      <c r="A18" s="20"/>
+      <c r="B18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3078,16 +3091,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    <row r="19" spans="1:13" ht="68">
+      <c r="A19" s="20"/>
+      <c r="B19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16">
+      <c r="A20" s="20"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3097,35 +3115,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:13" ht="34">
+      <c r="A22" s="20"/>
       <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="187">
+      <c r="A23" s="20"/>
       <c r="B23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34">
+      <c r="A24" s="20"/>
       <c r="B24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17">
+      <c r="A25" s="20"/>
       <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
@@ -3133,195 +3151,204 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:13" ht="34">
+      <c r="A26" s="20"/>
       <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="68">
+      <c r="A27" s="20"/>
       <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="118">
+      <c r="A28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="104.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="102">
+      <c r="A29" s="20"/>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="119">
+      <c r="A30" s="20"/>
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="68">
+      <c r="A31" s="20"/>
       <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="68">
+      <c r="A32" s="20"/>
       <c r="B32" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="187">
+      <c r="A33" s="20"/>
+      <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="34">
       <c r="A37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:4" ht="102">
+      <c r="A43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="85">
+      <c r="A44" s="20"/>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="8" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="34">
+      <c r="A45" s="20"/>
+      <c r="B45" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34">
+      <c r="A46" s="20"/>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17">
+      <c r="A47" s="20"/>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34">
+      <c r="A48" s="20"/>
+      <c r="B48" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="16">
+      <c r="A49" s="20"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="306">
+      <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>56</v>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +3357,7 @@
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A43:A49"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,12 +3374,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="196.625" customWidth="1"/>
+    <col min="1" max="1" width="196.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>53</v>
       </c>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B007-F7F8-FE41-A3F9-08888BA0433A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7C768-FAEF-5C4E-A308-5F7FC0769DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="2120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2726,13 +2726,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7C768-FAEF-5C4E-A308-5F7FC0769DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47D221-5FD8-2940-8696-75BEDFF32D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="-38420" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>C++/C</t>
   </si>
@@ -709,149 +709,6 @@
   </si>
   <si>
     <t>特殊逻辑表达式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a &lt;&gt; b
-And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑与，两个表达式都是真，返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a And b -&gt; False
-Or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑或，两个表达式至少有一个为真，返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a Or b -&gt; True
-Not </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑否，对逻辑表达式取否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Not a -&gt; False
-Xor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑异或，如果两个表达式不相同，返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> True a Xor b -&gt; True</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1048,19 +905,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> isBlank = Cells(i, 1).Value = ""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>添加语言概念内部命名，例如函数在vb中叫’过程‘</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>应用内部库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cells</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2193,10 +2042,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>取参地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ByVal：传递变量时，复制一份该变量，传入过程或函数。在过程和函数内部对该变量进行修改，只对该副本有效，对上一级过程（父过程）的变量没有影响。
 ByRef：传递变量时，将该变量的引用地址传入过程或函数。传入引用地址意味着，在过程或函数内部对其修改时，也会影响上一级过程（父过程）中的变量的值。</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2207,6 +2052,202 @@
   </si>
   <si>
     <t>Excel内置对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cells(x,y)：获取某个单元格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worksheets(n)：获取某个工作表</t>
+  </si>
+  <si>
+    <t>ActiveWorkbook：当前激活的文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worksheets：当前激活的文档的表格集合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a &lt;&gt; b
+And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑与，两个表达式都是真，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a And b -&gt; False
+Or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑或，两个表达式至少有一个为真，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a Or b -&gt; True
+Not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑否，对逻辑表达式取否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Not a -&gt; False
+Xor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑异或，如果两个表达式不相同，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True a Xor b -&gt; True
+Like: MyCheck = "aBBBa" Like "a*a"    ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBlank = Cells(i, 1).Value = ""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取参</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2214,7 +2255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2319,6 +2360,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2724,10 +2772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
@@ -2843,7 +2891,7 @@
     </row>
     <row r="5" spans="1:17" ht="51">
       <c r="A5" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -2915,7 +2963,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2931,10 +2979,10 @@
     <row r="10" spans="1:17" ht="51">
       <c r="A10" s="20"/>
       <c r="B10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2950,7 +2998,7 @@
     <row r="11" spans="1:17" ht="17">
       <c r="A11" s="20"/>
       <c r="B11" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -3025,13 +3073,13 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="85">
+    <row r="15" spans="1:17" ht="102">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3050,7 +3098,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3066,19 +3114,19 @@
     <row r="17" spans="1:13" ht="17">
       <c r="A17" s="20"/>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17">
       <c r="A18" s="20"/>
       <c r="B18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3091,14 +3139,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="68">
+    <row r="19" spans="1:13" ht="16">
       <c r="A19" s="20"/>
-      <c r="B19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="20" spans="1:13" ht="16">
       <c r="A20" s="20"/>
@@ -3121,108 +3163,108 @@
         <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="187">
       <c r="A23" s="20"/>
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34">
       <c r="A24" s="20"/>
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17">
       <c r="A25" s="20"/>
       <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34">
       <c r="A26" s="20"/>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="68">
       <c r="A27" s="20"/>
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="118">
       <c r="A28" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="102">
       <c r="A29" s="20"/>
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="119">
       <c r="A30" s="20"/>
       <c r="B30" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="68">
       <c r="A31" s="20"/>
       <c r="B31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="68">
       <c r="A32" s="20"/>
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="187">
       <c r="A33" s="20"/>
       <c r="B33" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -3240,17 +3282,22 @@
     </row>
     <row r="37" spans="1:4" ht="34">
       <c r="A37" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="C38" s="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="68">
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="4"/>
@@ -3266,58 +3313,58 @@
     </row>
     <row r="43" spans="1:4" ht="102">
       <c r="A43" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="85">
       <c r="A44" s="20"/>
       <c r="B44" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34">
       <c r="A45" s="20"/>
       <c r="B45" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34">
       <c r="A46" s="20"/>
       <c r="B46" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17">
       <c r="A47" s="20"/>
       <c r="B47" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34">
       <c r="A48" s="20"/>
       <c r="B48" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
@@ -3326,28 +3373,41 @@
     </row>
     <row r="50" spans="1:3" ht="306">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3381,7 +3441,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,28 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601338D-A230-EA48-81EB-2ABEEDDE4201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433302DD-7076-5E49-B202-256E7C2A135E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
-  <si>
-    <t>C++/C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>Java</t>
   </si>
@@ -405,19 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型	存储长度	值范围
-char	1 byte	-128 to 127 or 0 to 255
-unsigned char	1 byte	0 to 255
-signed char	1 byte	-128 to 127
-int	2 or 4 bytes	-32,768 to 32,767 or -2,147,483,648 to 2,147,483,647
-unsigned int	2 or 4 bytes	0 to 65,535 or 0 to 4,294,967,295
-short	2 bytes	-32,768 to 32,767
-unsigned short	2 bytes	0 to 65,535
-long	4 bytes	-2,147,483,648 to 2,147,483,647
-unsigned long	4 bytes	0 to 4,294,967,295</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,13 +428,6 @@
   </si>
   <si>
     <t>输出Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型	存储大小	取值范围	精确
-float	4 byte	1.2E-38 to 3.4E+38	6 decimal places
-double	8 byte	2.3E-308 to 1.7E+308	15 decimal places
-long double	10 byte	3.4E-4932 to 1.1E+4932	19 decimal places</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,11 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool 是0和1 分别对应 -&gt; false/true
-BOOL 是0和非0（-256~255除0外） 分别对应-&gt;NO/YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NSString *string = @"123";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,14 +478,6 @@
   </si>
   <si>
     <t>判断表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运算符	描述	例子
-sizeof()	Returns the size of an variable.	sizeof(a), where a is integer, will return 4.
-&amp;	Returns the address of an variable.	&amp;a; will give actual address of the variable.
-*	Yiibaier to a variable.	*a; will yiibaier to a variable.
-? :	Conditional Expression	If Condition is true ? Then value X : Otherwise value Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +535,69 @@
   <si>
     <t>Let name = "Zhang San"
 [变量名] = [数据]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数函数直接书写，有参数函数将参数放在括号内。
+    result = Add(12, 345)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 符号，在一行写
+Dim i As Integer : Dim j As Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明包含10个文本类型元素的数组
+Dim names(1 to 10) As String
+'声明长度未知的文本类型数组
+Dim names() As String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明工作表类型的对象
+Dim sheet As Worksheet
+'将名称为“绩效表”的工作表，赋到 sheet 变量
+Set sheet = Worksheets("绩效表")
+Dim sheet As Worksheet
+Set sheet = Worksheets("绩效表")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub [过程名]([变量名1] As [数据类型1],...[变量名n] As [数据类型n])
+    语句1
+    语句2
+    ...
+    语句3
+End Sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function [函数名]([变量名1] As [数据类型1],...[变量名n] As [数据类型n]) As [返回值类型]
+    语句1
+    语句2
+    ...
+    语句3
+    [函数名] = [返回值]
+End Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variant 任意类型 不限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const [常量名] As [数据类型] = [值]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date 日期和时间 时间：00:00:00 至 23:59:59
+日期： 100-1-1 至 9999-12-31
+time = #12:00:00#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL 是0和非0（-256~255除0外） 分别对应-&gt;NO/YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,62 +612,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无参数函数直接书写，有参数函数将参数放在括号内。
-    result = Add(12, 345)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> : 符号，在一行写
-Dim i As Integer : Dim j As Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声明包含10个文本类型元素的数组
-Dim names(1 to 10) As String
-'声明长度未知的文本类型数组
-Dim names() As String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声明工作表类型的对象
-Dim sheet As Worksheet
-'将名称为“绩效表”的工作表，赋到 sheet 变量
-Set sheet = Worksheets("绩效表")
-Dim sheet As Worksheet
-Set sheet = Worksheets("绩效表")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub [过程名]([变量名1] As [数据类型1],...[变量名n] As [数据类型n])
-    语句1
-    语句2
-    ...
-    语句3
-End Sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function [函数名]([变量名1] As [数据类型1],...[变量名n] As [数据类型n]) As [返回值类型]
-    语句1
-    语句2
-    ...
-    语句3
-    [函数名] = [返回值]
-End Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variant 任意类型 不限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Const [常量名] As [数据类型] = [值]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date 日期和时间 时间：00:00:00 至 23:59:59
-日期： 100-1-1 至 9999-12-31
-time = #12:00:00#</t>
+    <t>1.  区分C字符串常量和Objective-C字符串常量，就是看前面有没有@。
+2. 为了减少C代码和Objective-C代码之间的冲突，Objective-C的关键字都是使用@作为前缀。比如@end、@implementation、@class、@selector、@protocol、@property、@synthesize。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLog(@"Hello	World")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++/C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,54 +664,62 @@
     </font>
     <font>
       <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="黑体-简 中等"/>
+      <color theme="1"/>
+      <name val="兰亭黑-简 中黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="黑体-简 中等"/>
+      <color rgb="FF000000"/>
+      <name val="兰亭黑-简 中黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="黑体-简 中等"/>
+      <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +732,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -735,6 +753,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,65 +777,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,745 +1163,773 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="27.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" ht="26">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="33">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="34">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="27">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="54">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="126">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="18">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" ht="36">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" ht="18">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="17">
+      <c r="A12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="17">
+      <c r="A13" s="10"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="17">
+      <c r="A14" s="10"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="17">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="54">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="108">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="54">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="18">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="17">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="17">
+      <c r="A22" s="10"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="17">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="36">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="144">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="36">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="36">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="72">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="126">
+      <c r="A30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="108">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="126">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="72">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="198">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="36">
+      <c r="A39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="72">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18">
+      <c r="A42" s="10"/>
+      <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="17">
+      <c r="A43" s="10"/>
+      <c r="B43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="54">
+      <c r="A44" s="10"/>
+      <c r="B44" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="160">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="C44" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="108">
+      <c r="A45" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="90">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="36">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="36">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="36">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" ht="180">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="H52" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="72">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="H53" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="324">
+      <c r="A55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="112">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="32">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="32">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="16">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="15">
-      <c r="A11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="15">
-      <c r="A12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="15">
-      <c r="A13" s="7"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" ht="15">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" ht="48">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" ht="96">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="128">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="7"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="32">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="176">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="32">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="32">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="64">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="112">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="96">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="112">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="64">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="64">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="176">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" ht="32">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="64">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="H56" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="22"/>
+      <c r="C57" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="48">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="96">
-      <c r="A44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="80">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="32">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="32">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="32">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" ht="176">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="H51" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="288">
-      <c r="A53" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="17"/>
-      <c r="C55" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="C71" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="C70" s="9" t="s">
+      <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="B71" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="C74" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="C72" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A45:A54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{4056F363-15F2-994B-AF11-25309C992705}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{96130D83-B309-A946-AD80-9FAC3E24BE66}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{4056F363-15F2-994B-AF11-25309C992705}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{96130D83-B309-A946-AD80-9FAC3E24BE66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1882,7 +1952,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433302DD-7076-5E49-B202-256E7C2A135E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC18C2C9-F626-4B4D-80AD-706ED9D2E23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>Java</t>
   </si>
@@ -155,27 +155,6 @@
   </si>
   <si>
     <t>基本库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Format：格式化数据，并以文本类型返回
-InStr：返回指定字符的位置
-InStrRev：反方向返回指定字符位置
-Left：返回左侧指定长度文本
-Len：返回文本长度
-LCase：大写字母转换成小写字母
-LTrim：清除开头的空格
-Mid：返回指定的开始和结束位置之间的文本
-Replace：替换文本中的指定字符
-Right：返回右侧指定长度文本
-RTrim：清除末尾处的空格
-Space：返回指定重复数的空格文本
-StrComp：返回比较两个文本的结果
-StrConv：将文本转换成指定格式
-String：返回指定重复数的文本
-StrReverse：逆转提供的字符串
-Trim：清除开头和结尾处的文本
-UCase：将小写字母转换成大写字母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -445,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NSString *string = @"123";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无简单string类型，由对象代理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,6 +605,48 @@
   </si>
   <si>
     <t>C++/C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非结构化流程控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱字符（^）是块的语法标记。
+void (^printBlock)(NSString *x);
+        printBlock = ^(NSString* str)
+        {
+            NSLog(@"print:%@", str);
+        };
+        printBlock(@"hello world!");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitbook.net/objective_c/objective_c_numbers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lanrenexcel.com/vba-data-type/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gitbook.net/objective_c/objective_c_preprocessors.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -768,6 +785,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +900,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,17 +1232,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -1191,12 +1260,12 @@
     <col min="18" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="33">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="33">
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1237,8 +1306,11 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="34">
+      <c r="R1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1335,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1278,9 +1350,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1289,7 +1361,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1297,20 +1369,20 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1318,9 +1390,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="54">
+    <row r="7" spans="1:18" ht="54">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
@@ -1330,13 +1402,13 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="126">
+    <row r="8" spans="1:18" ht="126">
       <c r="A8" s="10"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1349,20 +1421,20 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="18">
+    <row r="9" spans="1:18" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1370,20 +1442,20 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="36">
+    <row r="10" spans="1:18" ht="36">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1391,28 +1463,26 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="18">
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="17">
+    <row r="12" spans="1:18" ht="17">
       <c r="A12" s="10"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1425,7 +1495,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="17">
+    <row r="13" spans="1:18" ht="17">
       <c r="A13" s="10"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -1438,7 +1508,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="17">
+    <row r="14" spans="1:18" ht="17">
       <c r="A14" s="10"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -1451,7 +1521,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="17">
+    <row r="15" spans="1:18" ht="17">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1459,14 +1529,14 @@
         <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1474,13 +1544,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="54">
+    <row r="16" spans="1:18" ht="54">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1499,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1518,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1534,19 +1604,19 @@
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1562,7 +1632,7 @@
     <row r="21" spans="1:13" ht="17">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1578,7 +1648,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="19"/>
     </row>
@@ -1588,118 +1658,124 @@
         <v>29</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="144">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="36">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="36">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="126">
       <c r="A30" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="108">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="126">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="72">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="72">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="198">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="D35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="126">
+      <c r="B36" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="C37" s="12"/>
@@ -1711,228 +1787,280 @@
     </row>
     <row r="39" spans="1:8" ht="36">
       <c r="A39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="72">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="H41" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
       <c r="A42" s="10"/>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17">
       <c r="A43" s="10"/>
       <c r="B43" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="54">
       <c r="A44" s="10"/>
       <c r="B44" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="108">
-      <c r="A45" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17">
+      <c r="A45" s="10"/>
+      <c r="B45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="108">
+      <c r="A46" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="90">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="C46" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="36">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" ht="17">
+      <c r="A48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" ht="17">
+      <c r="A49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" ht="17">
+      <c r="A50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" ht="36">
+      <c r="A51" s="24"/>
+      <c r="B51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="36">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="36">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17">
-      <c r="A51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="180">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="H52" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="72">
-      <c r="A53" s="10"/>
+      <c r="C51" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17">
+      <c r="A52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" ht="180">
+      <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C53" s="20"/>
       <c r="H53" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="72">
+      <c r="A54" s="24"/>
+      <c r="B54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="H54" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18">
+      <c r="A55" s="24"/>
+      <c r="B55" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" ht="17">
+      <c r="A56" s="25"/>
+      <c r="C56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" ht="90">
+      <c r="A57" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" ht="36">
+      <c r="A58" s="24"/>
+      <c r="B58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" ht="36">
+      <c r="A59" s="24"/>
+      <c r="B59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="18">
+      <c r="A60" s="24"/>
+      <c r="B60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" ht="17">
+      <c r="A61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="324">
-      <c r="A55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="12" t="s">
+    <row r="64" spans="1:8">
+      <c r="B64" s="22"/>
+      <c r="C64" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="22"/>
-      <c r="C57" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="11" t="s">
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="C79" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="C72" s="12" t="s">
+      <c r="C80" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="4" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A39:A44"/>
+  <mergeCells count="8">
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="A57:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{4056F363-15F2-994B-AF11-25309C992705}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{96130D83-B309-A946-AD80-9FAC3E24BE66}"/>
+    <hyperlink ref="H65" r:id="rId3" xr:uid="{67100830-7943-BF41-A3A5-59AD3F03DA59}"/>
+    <hyperlink ref="C62" r:id="rId4" xr:uid="{10399B80-7B54-5A4F-8390-4B8FDBD7E632}"/>
+    <hyperlink ref="H62" r:id="rId5" xr:uid="{43B6A742-51F2-884F-B783-ADAA8055DEF2}"/>
+    <hyperlink ref="H45" r:id="rId6" xr:uid="{988EE504-B8B9-EB40-AA24-88FD9692333C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1952,7 +2080,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC18C2C9-F626-4B4D-80AD-706ED9D2E23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA747517-27B4-5B43-9DFC-6C5940332B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
   <si>
     <t>Java</t>
   </si>
@@ -647,6 +647,51 @@
   </si>
   <si>
     <t>代码替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构语言实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片：
+auto org = vector&lt;int&gt;({73, 74, 75, 71, 69, 72, 76, 73});
+vector&lt;int&gt;(org.begin()+3,org.end()-1);     //71, 69, 72, 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助函数：
+判空：empty函数
+长度：size函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删：
+erase函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增：
+插入：insert函数
+弹出：pop_back函数
+插入：push_back函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器：begin函数，rbegin函数，end函数，rend函数
+取值用法：*运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查：
+首元素：front函数
+尾元素：back函数
+下标元素：at函数，[]操作符
+某个元素位置：std::find函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,45 +907,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,11 +961,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,22 +1286,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1257,7 +1311,8 @@
     <col min="15" max="15" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="4"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="33">
@@ -1391,30 +1446,30 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="54">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:18" ht="126">
-      <c r="A8" s="10"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1422,7 +1477,7 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="18">
-      <c r="A9" s="10"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1488,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>117</v>
       </c>
       <c r="I9" s="7"/>
@@ -1443,18 +1498,18 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="36">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="7"/>
@@ -1464,11 +1519,11 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="18">
-      <c r="A11" s="10"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="7"/>
@@ -1483,7 +1538,7 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="17">
-      <c r="A12" s="10"/>
+      <c r="A12" s="24"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1496,126 +1551,126 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="17">
-      <c r="A13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="24"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="17">
-      <c r="A14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="A14" s="24"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:18" ht="17">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="54">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="108">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="54">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="18">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="7"/>
@@ -1630,187 +1685,187 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" ht="17">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="17">
-      <c r="A22" s="10"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="24"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="36">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="144">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="36">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="36">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="126">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="108">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="126">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="72">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="72">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="198">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="H35" s="12" t="s">
+      <c r="D35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="126">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="36">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="72">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>80</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -1818,11 +1873,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
-      <c r="A42" s="10"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -1830,166 +1885,166 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17">
-      <c r="A43" s="10"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="54">
-      <c r="A44" s="10"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17">
-      <c r="A45" s="10"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="108">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17">
-      <c r="A47" s="24"/>
+      <c r="A47" s="26"/>
     </row>
     <row r="48" spans="1:8" ht="17">
-      <c r="A48" s="24"/>
+      <c r="A48" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="17">
-      <c r="A49" s="24"/>
+      <c r="A49" s="26"/>
     </row>
     <row r="50" spans="1:8" ht="17">
-      <c r="A50" s="24"/>
+      <c r="A50" s="26"/>
     </row>
     <row r="51" spans="1:8" ht="36">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17">
-      <c r="A52" s="24"/>
+      <c r="A52" s="26"/>
     </row>
     <row r="53" spans="1:8" ht="180">
-      <c r="A53" s="24"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="H53" s="12" t="s">
+      <c r="C53" s="19"/>
+      <c r="H53" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="72">
-      <c r="A54" s="24"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="H54" s="12" t="s">
+      <c r="C54" s="19"/>
+      <c r="H54" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" ht="17">
-      <c r="A56" s="25"/>
-      <c r="C56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="C56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="90">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" ht="36">
-      <c r="A58" s="24"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="36">
-      <c r="A59" s="24"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="18">
-      <c r="A60" s="24"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="17">
-      <c r="A61" s="25"/>
+      <c r="A61" s="27"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -1997,50 +2052,122 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="B64" s="22"/>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:4">
       <c r="C81" s="4" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="84" spans="1:4" ht="54">
+      <c r="A84" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="90">
+      <c r="A85" s="26"/>
+      <c r="B85" s="29"/>
+      <c r="D85" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="72">
+      <c r="A86" s="26"/>
+      <c r="B86" s="29"/>
+      <c r="D86" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="36">
+      <c r="A87" s="26"/>
+      <c r="B87" s="29"/>
+      <c r="D87" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="54">
+      <c r="A88" s="26"/>
+      <c r="B88" s="29"/>
+      <c r="D88" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="36">
+      <c r="A89" s="26"/>
+      <c r="B89" s="30"/>
+      <c r="D89" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" customHeight="1">
+      <c r="A90" s="26"/>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1">
+      <c r="A91" s="26"/>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1">
+      <c r="A92" s="26"/>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1">
+      <c r="A93" s="26"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1">
+      <c r="A94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1">
+      <c r="A95" s="26"/>
+    </row>
+    <row r="96" spans="1:4" ht="30" customHeight="1">
+      <c r="A96" s="26"/>
+    </row>
+    <row r="97" spans="1:1" ht="30" customHeight="1">
+      <c r="A97" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A84:A97"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A7:A14"/>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA747517-27B4-5B43-9DFC-6C5940332B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC858849-C126-DE40-A29A-0CE15FD1E5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC858849-C126-DE40-A29A-0CE15FD1E5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFE6370-B9B3-034D-956C-E33C64148BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <t>Java</t>
   </si>
@@ -692,6 +692,17 @@
 尾元素：back函数
 下标元素：at函数，[]操作符
 某个元素位置：std::find函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊用法：
+自动生成子元素类型：emplace函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算：
+连接：auto aa = vector&lt;int&gt;(org);
+    aa.insert(aa.end(), org1.begin(), org1.end());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,7 +1300,7 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
@@ -2140,11 +2151,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1">
+    <row r="90" spans="1:4" ht="36">
       <c r="A90" s="26"/>
-    </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1">
+      <c r="D90" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="54">
       <c r="A91" s="26"/>
+      <c r="D91" s="11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1">
       <c r="A92" s="26"/>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFE6370-B9B3-034D-956C-E33C64148BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57150D06-25BB-E94A-A051-01F3661CBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>Java</t>
   </si>
@@ -705,12 +705,15 @@
     aa.insert(aa.end(), org1.begin(), org1.end());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AppleScript</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,6 +792,13 @@
     <font>
       <sz val="11"/>
       <name val="兰亭黑-简 中黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF222226"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -887,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +990,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
@@ -1326,7 +1339,7 @@
     <col min="19" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="33">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="43">
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1375,8 +1388,11 @@
       <c r="R1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="34">
+      <c r="S1" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="34">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1417,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1416,7 +1432,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -1435,7 +1451,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1472,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="54">
+    <row r="7" spans="1:19" ht="54">
       <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1484,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="126">
+    <row r="8" spans="1:19" ht="126">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -1487,7 +1503,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="18">
+    <row r="9" spans="1:19" ht="18">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
@@ -1508,7 +1524,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="36">
+    <row r="10" spans="1:19" ht="36">
       <c r="A10" s="24"/>
       <c r="B10" s="10" t="s">
         <v>26</v>
@@ -1529,7 +1545,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="18">
+    <row r="11" spans="1:19" ht="18">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -1548,7 +1564,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="17">
+    <row r="12" spans="1:19" ht="17">
       <c r="A12" s="24"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1561,7 +1577,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="17">
+    <row r="13" spans="1:19" ht="17">
       <c r="A13" s="24"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1574,7 +1590,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:18" ht="17">
+    <row r="14" spans="1:19" ht="17">
       <c r="A14" s="24"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1587,7 +1603,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:18" ht="17">
+    <row r="15" spans="1:19" ht="17">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1626,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:18" ht="54">
+    <row r="16" spans="1:19" ht="54">
       <c r="A16" s="24"/>
       <c r="B16" s="10" t="s">
         <v>30</v>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57150D06-25BB-E94A-A051-01F3661CBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A341E-1BA9-4A4B-B875-23F76CBFF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>Java</t>
   </si>
@@ -707,6 +707,10 @@
   </si>
   <si>
     <t>AppleScript</t>
+  </si>
+  <si>
+    <t>映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1312,8 +1316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
@@ -2162,25 +2166,30 @@
     </row>
     <row r="89" spans="1:4" ht="36">
       <c r="A89" s="26"/>
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
       <c r="D89" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="36">
       <c r="A90" s="26"/>
+      <c r="B90" s="29"/>
       <c r="D90" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="54">
       <c r="A91" s="26"/>
+      <c r="B91" s="30"/>
       <c r="D91" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1">
       <c r="A92" s="26"/>
+      <c r="B92" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1">
       <c r="A93" s="26"/>
@@ -2199,8 +2208,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B84:B89"/>
     <mergeCell ref="A84:A97"/>
+    <mergeCell ref="B84:B91"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A7:A14"/>

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A341E-1BA9-4A4B-B875-23F76CBFF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788EE6D-7B2B-EF4A-A327-5BD68593E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
   <si>
     <t>Java</t>
   </si>
@@ -710,6 +713,34 @@
   </si>
   <si>
     <t>映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp; 连接两个文本 “Zhang” &amp; ” ” &amp; “San” -&gt; “Zhang San”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> the length of  "123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set (value_name) to (init_value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象被称做 记录，定义方法与大多数语言类似
+{result:"Yes"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">数组被称为 列表，使用{}创建
+set lyst1 to {1, "2"}
+数据之间用 &amp; 符号连接求合集，字符串除外
+set c to 1 &amp; 1
+取值语句：
+item 2 of lyst3
+负数取值得到数组的字符串表示
+item -1 of lyst3 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,9 +964,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,21 +990,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,7 +1020,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,14 +1341,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1340,7 +1365,8 @@
     <col min="16" max="16" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="4"/>
+    <col min="19" max="19" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="43">
@@ -1392,7 +1418,7 @@
       <c r="R1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="29" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1477,37 +1503,38 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:19" ht="54">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="126">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:19" ht="18">
+    <row r="9" spans="1:19" ht="18" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
@@ -1519,7 +1546,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>117</v>
       </c>
       <c r="I9" s="7"/>
@@ -1530,17 +1557,17 @@
     </row>
     <row r="10" spans="1:19" ht="36">
       <c r="A10" s="24"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="7"/>
@@ -1549,12 +1576,12 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="18">
+    <row r="11" spans="1:19" ht="18" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="7"/>
@@ -1568,7 +1595,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="17">
+    <row r="12" spans="1:19" ht="17" customHeight="1">
       <c r="A12" s="24"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1581,127 +1608,130 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="17">
+    <row r="13" spans="1:19" ht="17" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" ht="17">
-      <c r="A14" s="24"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" ht="17">
-      <c r="A15" s="24" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" ht="17" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="17" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:19" ht="54">
       <c r="A16" s="24"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" ht="108">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" ht="108">
       <c r="A17" s="24"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="54">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="54">
       <c r="A18" s="24"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="18">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="S18" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18">
+    <row r="20" spans="1:19" ht="18" customHeight="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="7"/>
@@ -1715,212 +1745,221 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="17">
+    <row r="21" spans="1:19" ht="17" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="17">
-      <c r="A22" s="24"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="24" t="s">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" ht="17" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" ht="17" customHeight="1">
+      <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:13" ht="36">
+      <c r="H23" s="17"/>
+      <c r="S23" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="36">
       <c r="A24" s="24"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" ht="144">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:19" ht="144">
       <c r="A25" s="24"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="36">
+    <row r="26" spans="1:19" ht="36">
       <c r="A26" s="24"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18">
+    <row r="27" spans="1:19" ht="18" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="36">
+    <row r="28" spans="1:19" ht="36">
       <c r="A28" s="24"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="72">
-      <c r="A29" s="24"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:19" ht="180">
+      <c r="A29" s="25"/>
+      <c r="B29" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="126">
-      <c r="A30" s="24" t="s">
+      <c r="S29" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="126">
+      <c r="A30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="108">
+      <c r="S30" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="108">
       <c r="A31" s="24"/>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="126">
+    <row r="32" spans="1:19" ht="126">
       <c r="A32" s="24"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="72">
       <c r="A33" s="24"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="72">
       <c r="A34" s="24"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="198">
-      <c r="A35" s="24"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="H35" s="11" t="s">
+      <c r="D35" s="10"/>
+      <c r="H35" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="126">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="36">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="72">
       <c r="A40" s="24"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18">
+    <row r="41" spans="1:8" ht="18" customHeight="1">
       <c r="A41" s="24"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18">
+    <row r="42" spans="1:8" ht="18" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17">
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1929,191 +1968,194 @@
       <c r="B44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:8" ht="17" customHeight="1">
+      <c r="A45" s="25"/>
       <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="108">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17">
-      <c r="A47" s="26"/>
-    </row>
-    <row r="48" spans="1:8" ht="17">
-      <c r="A48" s="26"/>
-    </row>
-    <row r="49" spans="1:8" ht="17">
-      <c r="A49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" ht="17">
-      <c r="A50" s="26"/>
-    </row>
-    <row r="51" spans="1:8" ht="36">
-      <c r="A51" s="26"/>
-      <c r="B51" s="10" t="s">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="24"/>
+    </row>
+    <row r="49" spans="1:19" ht="17" customHeight="1">
+      <c r="A49" s="24"/>
+    </row>
+    <row r="50" spans="1:19" ht="17" customHeight="1">
+      <c r="A50" s="24"/>
+    </row>
+    <row r="51" spans="1:19" ht="36">
+      <c r="A51" s="24"/>
+      <c r="B51" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17">
-      <c r="A52" s="26"/>
-    </row>
-    <row r="53" spans="1:8" ht="180">
-      <c r="A53" s="26"/>
-      <c r="B53" s="10" t="s">
+    <row r="52" spans="1:19" ht="17" customHeight="1">
+      <c r="A52" s="24"/>
+    </row>
+    <row r="53" spans="1:19" ht="180">
+      <c r="A53" s="24"/>
+      <c r="B53" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="H53" s="11" t="s">
+      <c r="C53" s="18"/>
+      <c r="H53" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="72">
-      <c r="A54" s="26"/>
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="1:19" ht="72">
+      <c r="A54" s="24"/>
+      <c r="B54" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="H54" s="11" t="s">
+      <c r="C54" s="18"/>
+      <c r="H54" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18">
-      <c r="A55" s="26"/>
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="1:19" ht="18" customHeight="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="17">
-      <c r="A56" s="27"/>
-      <c r="C56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="90">
-      <c r="A57" s="25" t="s">
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:19" ht="17" customHeight="1">
+      <c r="A56" s="25"/>
+      <c r="C56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:19" ht="90">
+      <c r="A57" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" ht="36">
-      <c r="A58" s="26"/>
-      <c r="B58" s="10" t="s">
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:19" ht="36">
+      <c r="A58" s="24"/>
+      <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" ht="36">
-      <c r="A59" s="26"/>
-      <c r="B59" s="10" t="s">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:19" ht="36">
+      <c r="A59" s="24"/>
+      <c r="B59" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" ht="18">
-      <c r="A60" s="26"/>
-      <c r="B60" s="10" t="s">
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:19" ht="18" customHeight="1">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" ht="17">
-      <c r="A61" s="27"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="20" t="s">
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:19" ht="17" customHeight="1">
+      <c r="A61" s="25"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="B63" s="23" t="s">
+    <row r="63" spans="1:19">
+      <c r="B63" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="23"/>
-      <c r="C64" s="11" t="s">
+      <c r="S63" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="B64" s="28"/>
+      <c r="C64" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -2126,85 +2168,85 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="54">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="90">
-      <c r="A85" s="26"/>
-      <c r="B85" s="29"/>
-      <c r="D85" s="11" t="s">
+      <c r="A85" s="24"/>
+      <c r="B85" s="27"/>
+      <c r="D85" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="72">
-      <c r="A86" s="26"/>
-      <c r="B86" s="29"/>
-      <c r="D86" s="11" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="27"/>
+      <c r="D86" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="36">
-      <c r="A87" s="26"/>
-      <c r="B87" s="29"/>
-      <c r="D87" s="11" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="27"/>
+      <c r="D87" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="54">
-      <c r="A88" s="26"/>
-      <c r="B88" s="29"/>
-      <c r="D88" s="11" t="s">
+      <c r="A88" s="24"/>
+      <c r="B88" s="27"/>
+      <c r="D88" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="36">
-      <c r="A89" s="26"/>
-      <c r="B89" s="29"/>
-      <c r="D89" s="11" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="27"/>
+      <c r="D89" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="36">
-      <c r="A90" s="26"/>
-      <c r="B90" s="29"/>
-      <c r="D90" s="11" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="27"/>
+      <c r="D90" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="54">
-      <c r="A91" s="26"/>
-      <c r="B91" s="30"/>
-      <c r="D91" s="11" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="28"/>
+      <c r="D91" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="24"/>
+      <c r="B92" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1">
-      <c r="A93" s="26"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1">
-      <c r="A94" s="26"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1">
-      <c r="A95" s="26"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1">
-      <c r="A96" s="26"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" spans="1:1" ht="30" customHeight="1">
-      <c r="A97" s="27"/>
+      <c r="A97" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/excel/mian.xlsx
+++ b/excel/mian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songjiaheng/language_compare/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788EE6D-7B2B-EF4A-A327-5BD68593E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25664607-6CB9-0A48-97F7-3BB35B6AFAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
+    <workbookView xWindow="-38240" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{7CEABD6A-E02C-FA42-9F0F-CFE369A86347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
   <si>
     <t>Java</t>
   </si>
@@ -741,6 +741,66 @@
 item 2 of lyst3
 负数取值得到数组的字符串表示
 item -1 of lyst3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dim Student1 As New Student("00001", 张三)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造表达式(new)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set theMessage to [make new] [outgoing message] with properties {subject:theSubject, content:theContent, visible:true}
+make new 为构造标准表达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell application "Mail"
+	--Create the message
+	set theMessage to make new outgoing message with properties {subject:theSubject, content:theContent, visible:true}
+	--Set a recipient
+	tell theMessage
+		make new to recipient with properties {name:recipientName, address:recipientAddress}
+		--Send the Message
+		send
+	end tell
+end tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function () {
+    var name = "Barry";
+})();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.voidcn.com/article/p-siytuqaz-xd.html
+https://sspai.com/post/46912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- 这是一条注释 
+# 这也是一条注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即调用函数(带对象)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function () {
+    var name = "Barry";
+}.bind(obj))();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +1062,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,8 +1083,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,34 +1402,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B49887-A6A7-1A40-B840-A93D93663C82}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="82.1640625" defaultRowHeight="30"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="4"/>
+    <col min="16" max="16" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="143.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="82.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="43">
@@ -1418,7 +1481,7 @@
       <c r="R1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1481,7 +1544,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="34">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1501,9 +1564,12 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
+      <c r="S6" s="19" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="54">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1516,7 +1582,7 @@
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="126">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1534,8 +1600,8 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:19" ht="18">
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1556,7 +1622,7 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="36">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
@@ -1576,8 +1642,8 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:19" ht="18">
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1661,8 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="17" customHeight="1">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:19" ht="17">
+      <c r="A12" s="25"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1608,8 +1674,8 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="17" customHeight="1">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:19" ht="17">
+      <c r="A13" s="25"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1621,8 +1687,8 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="17" customHeight="1">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:19" ht="17">
+      <c r="A14" s="26"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1634,8 +1700,8 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="17" customHeight="1">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:19" ht="17">
+      <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1658,7 +1724,7 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:19" ht="54">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1743,7 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:19" ht="108">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
@@ -1696,7 +1762,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:19" ht="54">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
@@ -1717,8 +1783,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:19" ht="18">
+      <c r="A19" s="25"/>
       <c r="B19" s="21" t="s">
         <v>37</v>
       </c>
@@ -1726,8 +1792,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:19" ht="18">
+      <c r="A20" s="25"/>
       <c r="B20" s="21" t="s">
         <v>65</v>
       </c>
@@ -1745,533 +1811,577 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:19" ht="17" customHeight="1">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:19" ht="17">
+      <c r="A21" s="25"/>
       <c r="B21" s="21" t="s">
         <v>97</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="17" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" ht="17" customHeight="1">
-      <c r="A23" s="23" t="s">
+    <row r="22" spans="1:19" ht="17">
+      <c r="A22" s="26"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" ht="36">
+      <c r="A23" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="17">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="S23" s="4" t="s">
+      <c r="H24" s="17"/>
+      <c r="S24" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21" t="s">
+    <row r="25" spans="1:19" ht="36">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:19" ht="144">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21" t="s">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" ht="144">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="36">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21" t="s">
+    <row r="27" spans="1:19" ht="36">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+    <row r="28" spans="1:19" ht="36">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="36">
-      <c r="A28" s="24"/>
-      <c r="B28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="180">
+      <c r="S28" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="36">
       <c r="A29" s="25"/>
       <c r="B29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="162">
+      <c r="A30" s="26"/>
+      <c r="B30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="126">
-      <c r="A30" s="23" t="s">
+    <row r="31" spans="1:19" ht="126">
+      <c r="A31" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S31" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="108">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21" t="s">
+    <row r="32" spans="1:19" ht="108">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="126">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21" t="s">
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" ht="126">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="72">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="198">
+    <row r="34" spans="1:19" ht="54">
+      <c r="A34" s="25"/>
+      <c r="C34" s="12"/>
+      <c r="G34" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="252">
       <c r="A35" s="25"/>
       <c r="B35" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="72">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="72">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="198">
+      <c r="A38" s="26"/>
+      <c r="B38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="H35" s="10" t="s">
+      <c r="D38" s="10"/>
+      <c r="H38" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="126">
-      <c r="B36" s="21" t="s">
+    <row r="39" spans="1:19" ht="126">
+      <c r="B39" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="H36" s="10" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="H39" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="36">
-      <c r="A39" s="23" t="s">
+    <row r="40" spans="1:19">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" ht="36">
+      <c r="A42" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="72">
-      <c r="A40" s="24"/>
-      <c r="B40" s="21" t="s">
+    <row r="43" spans="1:19" ht="72">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="21" t="s">
+    <row r="44" spans="1:19" ht="18">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="54">
-      <c r="A44" s="24"/>
-      <c r="B44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1">
+    <row r="45" spans="1:19" ht="18">
       <c r="A45" s="25"/>
       <c r="B45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="17">
+      <c r="A46" s="25"/>
+      <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="54">
+      <c r="A47" s="25"/>
+      <c r="B47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="17">
+      <c r="A48" s="26"/>
+      <c r="B48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H48" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="108">
-      <c r="A46" s="23" t="s">
+    <row r="49" spans="1:8" ht="108">
+      <c r="A49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
-      <c r="A47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1">
-      <c r="A48" s="24"/>
-    </row>
-    <row r="49" spans="1:19" ht="17" customHeight="1">
-      <c r="A49" s="24"/>
-    </row>
-    <row r="50" spans="1:19" ht="17" customHeight="1">
-      <c r="A50" s="24"/>
-    </row>
-    <row r="51" spans="1:19" ht="36">
-      <c r="A51" s="24"/>
-      <c r="B51" s="21" t="s">
+    <row r="50" spans="1:8" ht="17">
+      <c r="A50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" ht="17">
+      <c r="A51" s="25"/>
+    </row>
+    <row r="52" spans="1:8" ht="17">
+      <c r="A52" s="25"/>
+    </row>
+    <row r="53" spans="1:8" ht="17">
+      <c r="A53" s="25"/>
+    </row>
+    <row r="54" spans="1:8" ht="36">
+      <c r="A54" s="25"/>
+      <c r="B54" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="17" customHeight="1">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" spans="1:19" ht="180">
-      <c r="A53" s="24"/>
-      <c r="B53" s="21" t="s">
+    <row r="55" spans="1:8" ht="17">
+      <c r="A55" s="25"/>
+    </row>
+    <row r="56" spans="1:8" ht="180">
+      <c r="A56" s="25"/>
+      <c r="B56" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="H53" s="10" t="s">
+      <c r="C56" s="18"/>
+      <c r="H56" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="72">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21" t="s">
+    <row r="57" spans="1:8" ht="72">
+      <c r="A57" s="25"/>
+      <c r="B57" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="H54" s="10" t="s">
+      <c r="C57" s="18"/>
+      <c r="H57" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
+    <row r="58" spans="1:8" ht="18">
+      <c r="A58" s="25"/>
+      <c r="B58" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" ht="17" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="C56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:19" ht="90">
-      <c r="A57" s="23" t="s">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="17">
+      <c r="A59" s="26"/>
+      <c r="C59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="90">
+      <c r="A60" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B60" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:19" ht="36">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" ht="36">
+      <c r="A61" s="25"/>
+      <c r="B61" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:19" ht="36">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21" t="s">
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="36">
+      <c r="A62" s="25"/>
+      <c r="B62" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:19" ht="18" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="21" t="s">
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="18">
+      <c r="A63" s="25"/>
+      <c r="B63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:19" ht="17" customHeight="1">
-      <c r="A61" s="25"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="22" t="s">
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" ht="17">
+      <c r="A64" s="26"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B65" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H65" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="B63" s="26" t="s">
+    <row r="66" spans="1:19">
+      <c r="B66" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="S63" s="10" t="s">
+      <c r="S66" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="B64" s="28"/>
-      <c r="C64" s="10" t="s">
+    <row r="67" spans="1:19">
+      <c r="B67" s="29"/>
+      <c r="C67" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="21" t="s">
+    <row r="68" spans="1:19">
+      <c r="B68" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H68" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="22" t="s">
+    <row r="69" spans="1:19">
+      <c r="B69" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B81" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="C79" s="10" t="s">
+    <row r="82" spans="1:4">
+      <c r="C82" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="B80" s="21" t="s">
+    <row r="83" spans="1:4">
+      <c r="B83" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="C81" s="4" t="s">
+    <row r="84" spans="1:4">
+      <c r="C84" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="54">
-      <c r="A84" s="23" t="s">
+    <row r="87" spans="1:4" ht="54">
+      <c r="A87" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B87" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="90">
-      <c r="A85" s="24"/>
-      <c r="B85" s="27"/>
-      <c r="D85" s="10" t="s">
+    <row r="88" spans="1:4" ht="90">
+      <c r="A88" s="25"/>
+      <c r="B88" s="28"/>
+      <c r="D88" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="72">
-      <c r="A86" s="24"/>
-      <c r="B86" s="27"/>
-      <c r="D86" s="10" t="s">
+    <row r="89" spans="1:4" ht="72">
+      <c r="A89" s="25"/>
+      <c r="B89" s="28"/>
+      <c r="D89" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="36">
-      <c r="A87" s="24"/>
-      <c r="B87" s="27"/>
-      <c r="D87" s="10" t="s">
+    <row r="90" spans="1:4" ht="36">
+      <c r="A90" s="25"/>
+      <c r="B90" s="28"/>
+      <c r="D90" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="54">
-      <c r="A88" s="24"/>
-      <c r="B88" s="27"/>
-      <c r="D88" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="36">
-      <c r="A89" s="24"/>
-      <c r="B89" s="27"/>
-      <c r="D89" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="36">
-      <c r="A90" s="24"/>
-      <c r="B90" s="27"/>
-      <c r="D90" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
     <row r="91" spans="1:4" ht="54">
-      <c r="A91" s="24"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="28"/>
       <c r="D91" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="36">
+      <c r="A92" s="25"/>
+      <c r="B92" s="28"/>
+      <c r="D92" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="36">
+      <c r="A93" s="25"/>
+      <c r="B93" s="28"/>
+      <c r="D93" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="54">
+      <c r="A94" s="25"/>
+      <c r="B94" s="29"/>
+      <c r="D94" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1">
-      <c r="A92" s="24"/>
-      <c r="B92" s="21" t="s">
+    <row r="95" spans="1:4" ht="17">
+      <c r="A95" s="25"/>
+      <c r="B95" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1">
-      <c r="A93" s="24"/>
-    </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1">
-      <c r="A94" s="24"/>
-    </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1">
-      <c r="A95" s="24"/>
-    </row>
-    <row r="96" spans="1:4" ht="30" customHeight="1">
-      <c r="A96" s="24"/>
-    </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1">
+    <row r="96" spans="1:4" ht="17">
+      <c r="A96" s="25"/>
+    </row>
+    <row r="97" spans="1:1" ht="17">
       <c r="A97" s="25"/>
+    </row>
+    <row r="98" spans="1:1" ht="17">
+      <c r="A98" s="25"/>
+    </row>
+    <row r="99" spans="1:1" ht="17">
+      <c r="A99" s="25"/>
+    </row>
+    <row r="100" spans="1:1" ht="17">
+      <c r="A100" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A84:A97"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{4056F363-15F2-994B-AF11-25309C992705}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{96130D83-B309-A946-AD80-9FAC3E24BE66}"/>
-    <hyperlink ref="H65" r:id="rId3" xr:uid="{67100830-7943-BF41-A3A5-59AD3F03DA59}"/>
-    <hyperlink ref="C62" r:id="rId4" xr:uid="{10399B80-7B54-5A4F-8390-4B8FDBD7E632}"/>
-    <hyperlink ref="H62" r:id="rId5" xr:uid="{43B6A742-51F2-884F-B783-ADAA8055DEF2}"/>
-    <hyperlink ref="H45" r:id="rId6" xr:uid="{988EE504-B8B9-EB40-AA24-88FD9692333C}"/>
+    <hyperlink ref="H68" r:id="rId3" xr:uid="{67100830-7943-BF41-A3A5-59AD3F03DA59}"/>
+    <hyperlink ref="C65" r:id="rId4" xr:uid="{10399B80-7B54-5A4F-8390-4B8FDBD7E632}"/>
+    <hyperlink ref="H65" r:id="rId5" xr:uid="{43B6A742-51F2-884F-B783-ADAA8055DEF2}"/>
+    <hyperlink ref="H48" r:id="rId6" xr:uid="{988EE504-B8B9-EB40-AA24-88FD9692333C}"/>
+    <hyperlink ref="S6" r:id="rId7" display="http://www.voidcn.com/article/p-siytuqaz-xd.html" xr:uid="{C41AEB5E-87E1-734F-B79D-0F5587F2103F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
